--- a/hello3.xlsx
+++ b/hello3.xlsx
@@ -197,6 +197,9 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
